--- a/Code/Results/Cases/Case_4_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.518733172560815</v>
+        <v>1.278710430081162</v>
       </c>
       <c r="C2">
-        <v>1.009661089091566</v>
+        <v>0.3360007219306169</v>
       </c>
       <c r="D2">
-        <v>0.5628235616618156</v>
+        <v>0.6466354191979633</v>
       </c>
       <c r="E2">
-        <v>0.2518974950002004</v>
+        <v>0.2641277278156693</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3131038418701877</v>
+        <v>0.5101622322586152</v>
       </c>
       <c r="H2">
-        <v>0.2484931687904179</v>
+        <v>0.6506829541225727</v>
       </c>
       <c r="I2">
-        <v>0.1168143997798214</v>
+        <v>0.4235443996883959</v>
       </c>
       <c r="J2">
-        <v>0.1496980779460486</v>
+        <v>0.1377940913252402</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.134194833803207</v>
+        <v>2.287274129948258</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.063020184952393</v>
+        <v>1.133085885519336</v>
       </c>
       <c r="C3">
-        <v>0.8806227008223004</v>
+        <v>0.2944377662282136</v>
       </c>
       <c r="D3">
-        <v>0.5062484318444831</v>
+        <v>0.6358277581243783</v>
       </c>
       <c r="E3">
-        <v>0.2253124806216462</v>
+        <v>0.2588352462145806</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2941233579950762</v>
+        <v>0.5137103184422784</v>
       </c>
       <c r="H3">
-        <v>0.2474700253099016</v>
+        <v>0.6575086674885071</v>
       </c>
       <c r="I3">
-        <v>0.129334790167114</v>
+        <v>0.4336482092987435</v>
       </c>
       <c r="J3">
-        <v>0.1329471031999816</v>
+        <v>0.1342939655858189</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.091345955640207</v>
+        <v>2.308749860258999</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.78338283748144</v>
+        <v>1.043426673278077</v>
       </c>
       <c r="C4">
-        <v>0.8014173338093826</v>
+        <v>0.2688236922782608</v>
       </c>
       <c r="D4">
-        <v>0.4722127608778237</v>
+        <v>0.6295269056035124</v>
       </c>
       <c r="E4">
-        <v>0.2093112566249076</v>
+        <v>0.2557286836162547</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2838006325284042</v>
+        <v>0.516423489300827</v>
       </c>
       <c r="H4">
-        <v>0.2476375984959418</v>
+        <v>0.6621207783661802</v>
       </c>
       <c r="I4">
-        <v>0.1379182497081644</v>
+        <v>0.4402598989969366</v>
       </c>
       <c r="J4">
-        <v>0.1228592598181919</v>
+        <v>0.1322237867784892</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.069513366955917</v>
+        <v>2.323939402934784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.669434699906844</v>
+        <v>1.00683058098457</v>
       </c>
       <c r="C5">
-        <v>0.7691364433538013</v>
+        <v>0.258362724150544</v>
       </c>
       <c r="D5">
-        <v>0.4585054132711832</v>
+        <v>0.6270435832576027</v>
       </c>
       <c r="E5">
-        <v>0.2028648059327338</v>
+        <v>0.2544987092132587</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2799063953735512</v>
+        <v>0.5176630958995716</v>
       </c>
       <c r="H5">
-        <v>0.2478958722407825</v>
+        <v>0.6641060250547</v>
       </c>
       <c r="I5">
-        <v>0.1416299734001871</v>
+        <v>0.4430565132271802</v>
       </c>
       <c r="J5">
-        <v>0.1187935055014435</v>
+        <v>0.1313999999468365</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.06167338365411</v>
+        <v>2.330631783171143</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.650513053655402</v>
+        <v>1.000750321524208</v>
       </c>
       <c r="C6">
-        <v>0.7637756952549353</v>
+        <v>0.2566243177181207</v>
       </c>
       <c r="D6">
-        <v>0.4562387377449681</v>
+        <v>0.626636324492182</v>
       </c>
       <c r="E6">
-        <v>0.2017986662661926</v>
+        <v>0.2542966459020874</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2792779929984519</v>
+        <v>0.5178770091465665</v>
       </c>
       <c r="H6">
-        <v>0.2479499475311826</v>
+        <v>0.6644420589170252</v>
       </c>
       <c r="I6">
-        <v>0.1422588992445331</v>
+        <v>0.4435270593059109</v>
       </c>
       <c r="J6">
-        <v>0.1181209890972212</v>
+        <v>0.1312644078867464</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.060433458870534</v>
+        <v>2.331773362249393</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781846114221992</v>
+        <v>1.04293336220735</v>
       </c>
       <c r="C7">
-        <v>0.8009820118962807</v>
+        <v>0.2686827043293931</v>
       </c>
       <c r="D7">
-        <v>0.472027258869673</v>
+        <v>0.629493073130277</v>
       </c>
       <c r="E7">
-        <v>0.2092240259065861</v>
+        <v>0.2557119500808369</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2837468775212528</v>
+        <v>0.5164396652651888</v>
       </c>
       <c r="H7">
-        <v>0.2476403253943289</v>
+        <v>0.6621471239750107</v>
       </c>
       <c r="I7">
-        <v>0.1379674558764137</v>
+        <v>0.4402972012842188</v>
       </c>
       <c r="J7">
-        <v>0.1228042506763813</v>
+        <v>0.1322125966386309</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.069403442715426</v>
+        <v>2.324027625693702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.361544345789525</v>
+        <v>1.228551362871031</v>
       </c>
       <c r="C8">
-        <v>0.9651570547834751</v>
+        <v>0.3216897671637753</v>
       </c>
       <c r="D8">
-        <v>0.5431621352548177</v>
+        <v>0.6428394216509616</v>
       </c>
       <c r="E8">
-        <v>0.2426599003865419</v>
+        <v>0.2622731927435993</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3062691612214437</v>
+        <v>0.5112743662953037</v>
       </c>
       <c r="H8">
-        <v>0.2479689576846127</v>
+        <v>0.6529489933594306</v>
       </c>
       <c r="I8">
-        <v>0.1209384534205213</v>
+        <v>0.4269433673916421</v>
       </c>
       <c r="J8">
-        <v>0.1438785934506583</v>
+        <v>0.1365708589184962</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.118448816796104</v>
+        <v>2.294262416528866</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.501561153915361</v>
+        <v>1.590514941090589</v>
       </c>
       <c r="C9">
-        <v>1.28781954410465</v>
+        <v>0.4248641004353431</v>
       </c>
       <c r="D9">
-        <v>0.6889049277236552</v>
+        <v>0.6716698084565564</v>
       </c>
       <c r="E9">
-        <v>0.3111145238785724</v>
+        <v>0.2762755261495258</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3620761631334091</v>
+        <v>0.5054089239649358</v>
       </c>
       <c r="H9">
-        <v>0.2554134042728577</v>
+        <v>0.638257921127078</v>
       </c>
       <c r="I9">
-        <v>0.09519620678196539</v>
+        <v>0.4040050565492361</v>
       </c>
       <c r="J9">
-        <v>0.1869897322254204</v>
+        <v>0.1457448596886266</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.253449402063154</v>
+        <v>2.251845834517695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.343993827519284</v>
+        <v>1.855119626744397</v>
       </c>
       <c r="C10">
-        <v>1.526125114305842</v>
+        <v>0.5001700646299128</v>
       </c>
       <c r="D10">
-        <v>0.8008153498768706</v>
+        <v>0.6944745126083944</v>
       </c>
       <c r="E10">
-        <v>0.3636677205492092</v>
+        <v>0.2872580120580395</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4117787352353304</v>
+        <v>0.5037294056500485</v>
       </c>
       <c r="H10">
-        <v>0.2657517067565607</v>
+        <v>0.6295118566182083</v>
       </c>
       <c r="I10">
-        <v>0.08175169989872444</v>
+        <v>0.3891484936105272</v>
       </c>
       <c r="J10">
-        <v>0.220081348384852</v>
+        <v>0.1528702646424733</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.381219423899609</v>
+        <v>2.230488437656135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.729006191221345</v>
+        <v>1.975189165056747</v>
       </c>
       <c r="C11">
-        <v>1.635006866654919</v>
+        <v>0.534316136389009</v>
       </c>
       <c r="D11">
-        <v>0.8530244757843661</v>
+        <v>0.7052021442258933</v>
       </c>
       <c r="E11">
-        <v>0.3881876229569556</v>
+        <v>0.2924057916915572</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4366666259260086</v>
+        <v>0.5035429848869626</v>
       </c>
       <c r="H11">
-        <v>0.2716869182005581</v>
+        <v>0.6259792461880664</v>
       </c>
       <c r="I11">
-        <v>0.07701616814944146</v>
+        <v>0.3828266901222239</v>
       </c>
       <c r="J11">
-        <v>0.2355238335989043</v>
+        <v>0.1561961037373862</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.446740206176798</v>
+        <v>2.22291916028135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.875120634561995</v>
+        <v>2.020611182450295</v>
       </c>
       <c r="C12">
-        <v>1.676323803888181</v>
+        <v>0.5472298471112254</v>
       </c>
       <c r="D12">
-        <v>0.8730042165607301</v>
+        <v>0.7093152696487834</v>
       </c>
       <c r="E12">
-        <v>0.3975718522584799</v>
+        <v>0.2943769716818068</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4464538554114341</v>
+        <v>0.5035559716274207</v>
       </c>
       <c r="H12">
-        <v>0.2741275670107939</v>
+        <v>0.624705809559984</v>
       </c>
       <c r="I12">
-        <v>0.07543908095597018</v>
+        <v>0.3804958528995481</v>
       </c>
       <c r="J12">
-        <v>0.2414347317039756</v>
+        <v>0.1574676908864774</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.472723151075172</v>
+        <v>2.220362902176248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.843637059504374</v>
+        <v>2.010830810894788</v>
       </c>
       <c r="C13">
-        <v>1.667421352204769</v>
+        <v>0.5444494008106062</v>
       </c>
       <c r="D13">
-        <v>0.8686915391928949</v>
+        <v>0.7084271757760519</v>
       </c>
       <c r="E13">
-        <v>0.3955462005173018</v>
+        <v>0.2939514720096241</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4443292767536775</v>
+        <v>0.5035494491494887</v>
       </c>
       <c r="H13">
-        <v>0.2735930731381728</v>
+        <v>0.6249772053924261</v>
       </c>
       <c r="I13">
-        <v>0.07576882496894299</v>
+        <v>0.3809950292250068</v>
       </c>
       <c r="J13">
-        <v>0.240158782743336</v>
+        <v>0.1571932905327742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.467073335030392</v>
+        <v>2.220899625279429</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.741020354662112</v>
+        <v>1.978926992129118</v>
       </c>
       <c r="C14">
-        <v>1.638404211180273</v>
+        <v>0.5353788931584518</v>
       </c>
       <c r="D14">
-        <v>0.8546638925055277</v>
+        <v>0.7055395156302495</v>
       </c>
       <c r="E14">
-        <v>0.3889576177523608</v>
+        <v>0.2925675243967873</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4374643457726819</v>
+        <v>0.5035423752565578</v>
       </c>
       <c r="H14">
-        <v>0.271883745661313</v>
+        <v>0.6258731905414265</v>
       </c>
       <c r="I14">
-        <v>0.07688198197200258</v>
+        <v>0.3826336644320918</v>
       </c>
       <c r="J14">
-        <v>0.2360088171250396</v>
+        <v>0.1563004740802967</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.448853707043469</v>
+        <v>2.22270263310557</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.678208084038829</v>
+        <v>1.959378955147827</v>
       </c>
       <c r="C15">
-        <v>1.620642090384194</v>
+        <v>0.529820754156674</v>
       </c>
       <c r="D15">
-        <v>0.846099501286659</v>
+        <v>0.7037773551032274</v>
       </c>
       <c r="E15">
-        <v>0.384935162520577</v>
+        <v>0.2917226591261226</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4333077083093002</v>
+        <v>0.5035489423750619</v>
       </c>
       <c r="H15">
-        <v>0.2708623772656864</v>
+        <v>0.6264303837224787</v>
       </c>
       <c r="I15">
-        <v>0.07759252073827483</v>
+        <v>0.3836456018593175</v>
       </c>
       <c r="J15">
-        <v>0.2334752947574827</v>
+        <v>0.1557551829204584</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.437849597099131</v>
+        <v>2.22384744909121</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.318873456523193</v>
+        <v>1.847266539228769</v>
       </c>
       <c r="C16">
-        <v>1.519020454275335</v>
+        <v>0.4979362446733262</v>
       </c>
       <c r="D16">
-        <v>0.7974313910634407</v>
+        <v>0.6937805487325193</v>
       </c>
       <c r="E16">
-        <v>0.3620785367003876</v>
+        <v>0.2869246469899736</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4102010311098354</v>
+        <v>0.5037532561372728</v>
       </c>
       <c r="H16">
-        <v>0.2653899537206001</v>
+        <v>0.6297517088129041</v>
       </c>
       <c r="I16">
-        <v>0.08209043299387098</v>
+        <v>0.3895704497309254</v>
       </c>
       <c r="J16">
-        <v>0.2190805763530932</v>
+        <v>0.1526546143647494</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.377095365603537</v>
+        <v>2.231026418954087</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.098932917981983</v>
+        <v>1.778410456996767</v>
       </c>
       <c r="C17">
-        <v>1.456812521541622</v>
+        <v>0.4783471995091872</v>
       </c>
       <c r="D17">
-        <v>0.7679234331793623</v>
+        <v>0.687738375127509</v>
       </c>
       <c r="E17">
-        <v>0.3482212547866439</v>
+        <v>0.2840200994031008</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3966333887230178</v>
+        <v>0.5040269052134363</v>
       </c>
       <c r="H17">
-        <v>0.2623593279826224</v>
+        <v>0.6319035764133929</v>
       </c>
       <c r="I17">
-        <v>0.08521544328998054</v>
+        <v>0.3933171842487706</v>
       </c>
       <c r="J17">
-        <v>0.2103544527949737</v>
+        <v>0.1507741610209337</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.341793312605972</v>
+        <v>2.235981221530011</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.972592977132649</v>
+        <v>1.738778126882039</v>
       </c>
       <c r="C18">
-        <v>1.421075770908999</v>
+        <v>0.4670696937232606</v>
       </c>
       <c r="D18">
-        <v>0.7510722066105302</v>
+        <v>0.6842963675974829</v>
       </c>
       <c r="E18">
-        <v>0.3403079235029978</v>
+        <v>0.2823637677812343</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3890417811018381</v>
+        <v>0.5042386363012099</v>
       </c>
       <c r="H18">
-        <v>0.2607311515063628</v>
+        <v>0.6331832461406179</v>
       </c>
       <c r="I18">
-        <v>0.08714166380573829</v>
+        <v>0.3955132751063939</v>
       </c>
       <c r="J18">
-        <v>0.2053715575734429</v>
+        <v>0.1497005222884127</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.322177835216962</v>
+        <v>2.239033028631582</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.929842821810439</v>
+        <v>1.725354545838456</v>
       </c>
       <c r="C19">
-        <v>1.408982905606877</v>
+        <v>0.4632495585693164</v>
       </c>
       <c r="D19">
-        <v>0.7453867994580889</v>
+        <v>0.6831366823147675</v>
       </c>
       <c r="E19">
-        <v>0.3376380800861511</v>
+        <v>0.2818054162185035</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3865068038980297</v>
+        <v>0.5043196410378386</v>
       </c>
       <c r="H19">
-        <v>0.2601991595211217</v>
+        <v>0.6336237245749174</v>
       </c>
       <c r="I19">
-        <v>0.08781545483651598</v>
+        <v>0.3962638774620313</v>
       </c>
       <c r="J19">
-        <v>0.2036904316831851</v>
+        <v>0.1493383712033136</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.315651620310234</v>
+        <v>2.240100957239889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.12232855561939</v>
+        <v>1.785743234370727</v>
       </c>
       <c r="C20">
-        <v>1.463430027879042</v>
+        <v>0.4804335688355081</v>
       </c>
       <c r="D20">
-        <v>0.7710519303749663</v>
+        <v>0.6883781297132998</v>
       </c>
       <c r="E20">
-        <v>0.3496904097158904</v>
+        <v>0.2843278147686803</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.398055486062006</v>
+        <v>0.5039921475076596</v>
       </c>
       <c r="H20">
-        <v>0.2626699343013428</v>
+        <v>0.6316701613639992</v>
       </c>
       <c r="I20">
-        <v>0.08486932718583162</v>
+        <v>0.3929140852230439</v>
       </c>
       <c r="J20">
-        <v>0.211279572755501</v>
+        <v>0.1509735157323036</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.345479180062824</v>
+        <v>2.235432864400678</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.771152200467327</v>
+        <v>1.988299177467809</v>
       </c>
       <c r="C21">
-        <v>1.646924773883825</v>
+        <v>0.5380435790145839</v>
       </c>
       <c r="D21">
-        <v>0.8587782857001116</v>
+        <v>0.7063863130082382</v>
       </c>
       <c r="E21">
-        <v>0.3908900638097776</v>
+        <v>0.2929734309616592</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4394706033478855</v>
+        <v>0.5035421805336853</v>
       </c>
       <c r="H21">
-        <v>0.2723804420803191</v>
+        <v>0.625608272082232</v>
       </c>
       <c r="I21">
-        <v>0.07654900662047304</v>
+        <v>0.3821506426763115</v>
       </c>
       <c r="J21">
-        <v>0.2372259875370588</v>
+        <v>0.156562385630437</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.45417255065712</v>
+        <v>2.222164619628217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.197085899705201</v>
+        <v>2.120413614560618</v>
       </c>
       <c r="C22">
-        <v>1.76735847245709</v>
+        <v>0.5755975891067919</v>
       </c>
       <c r="D22">
-        <v>0.9173441028008824</v>
+        <v>0.7184518040891703</v>
       </c>
       <c r="E22">
-        <v>0.4183996572092994</v>
+        <v>0.2987510689998203</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.468670502852035</v>
+        <v>0.5037355119726357</v>
       </c>
       <c r="H22">
-        <v>0.2798608018901234</v>
+        <v>0.6220212560223786</v>
       </c>
       <c r="I22">
-        <v>0.07238036142867088</v>
+        <v>0.3754840115506628</v>
       </c>
       <c r="J22">
-        <v>0.2545554674634474</v>
+        <v>0.1602859457748878</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.532095932816759</v>
+        <v>2.215300998866326</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.969562223142475</v>
+        <v>2.049926957289415</v>
       </c>
       <c r="C23">
-        <v>1.703027954434731</v>
+        <v>0.5555634560772091</v>
       </c>
       <c r="D23">
-        <v>0.8859658709135942</v>
+        <v>0.7119851477734755</v>
       </c>
       <c r="E23">
-        <v>0.4036600505554873</v>
+        <v>0.295655793332557</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4528784242279755</v>
+        <v>0.5035875571034865</v>
       </c>
       <c r="H23">
-        <v>0.2757590204005709</v>
+        <v>0.6239013723092199</v>
       </c>
       <c r="I23">
-        <v>0.07448290627328724</v>
+        <v>0.3790083489523095</v>
       </c>
       <c r="J23">
-        <v>0.2452697997238289</v>
+        <v>0.1582921168900242</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.489838643774334</v>
+        <v>2.218798344890246</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.111751059779635</v>
+        <v>1.782428228976073</v>
       </c>
       <c r="C24">
-        <v>1.460438169158749</v>
+        <v>0.4794903695030257</v>
       </c>
       <c r="D24">
-        <v>0.7696371855752773</v>
+        <v>0.6880887978635144</v>
       </c>
       <c r="E24">
-        <v>0.3490260392411884</v>
+        <v>0.2841886545043977</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.397411908702324</v>
+        <v>0.5040076920311662</v>
       </c>
       <c r="H24">
-        <v>0.2625291547559243</v>
+        <v>0.6317755558302451</v>
       </c>
       <c r="I24">
-        <v>0.08502540388637847</v>
+        <v>0.3930961953522356</v>
       </c>
       <c r="J24">
-        <v>0.2108612210647323</v>
+        <v>0.1508833642363498</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.343810688940124</v>
+        <v>2.23568014372259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.192526515152508</v>
+        <v>1.492821311943601</v>
       </c>
       <c r="C25">
-        <v>1.200374839566734</v>
+        <v>0.3970380475581123</v>
       </c>
       <c r="D25">
-        <v>0.6487077148898663</v>
+        <v>0.663585588990486</v>
       </c>
       <c r="E25">
-        <v>0.292237398451114</v>
+        <v>0.2723656678298525</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3455741103850585</v>
+        <v>0.5065360600915199</v>
       </c>
       <c r="H25">
-        <v>0.2526000420257475</v>
+        <v>0.6418732232329489</v>
       </c>
       <c r="I25">
-        <v>0.1012615058511628</v>
+        <v>0.4098610651457264</v>
       </c>
       <c r="J25">
-        <v>0.1751034737562946</v>
+        <v>0.1431955919822414</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.212286063052886</v>
+        <v>2.261604419784135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.278710430081162</v>
+        <v>3.518733172560985</v>
       </c>
       <c r="C2">
-        <v>0.3360007219306169</v>
+        <v>1.009661089091651</v>
       </c>
       <c r="D2">
-        <v>0.6466354191979633</v>
+        <v>0.5628235616617303</v>
       </c>
       <c r="E2">
-        <v>0.2641277278156693</v>
+        <v>0.2518974950002075</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5101622322586152</v>
+        <v>0.3131038418701735</v>
       </c>
       <c r="H2">
-        <v>0.6506829541225727</v>
+        <v>0.2484931687903043</v>
       </c>
       <c r="I2">
-        <v>0.4235443996883959</v>
+        <v>0.1168143997798357</v>
       </c>
       <c r="J2">
-        <v>0.1377940913252402</v>
+        <v>0.1496980779460486</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.287274129948258</v>
+        <v>1.134194833803235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.133085885519336</v>
+        <v>3.063020184952336</v>
       </c>
       <c r="C3">
-        <v>0.2944377662282136</v>
+        <v>0.8806227008222152</v>
       </c>
       <c r="D3">
-        <v>0.6358277581243783</v>
+        <v>0.506248431844341</v>
       </c>
       <c r="E3">
-        <v>0.2588352462145806</v>
+        <v>0.2253124806216391</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5137103184422784</v>
+        <v>0.2941233579951543</v>
       </c>
       <c r="H3">
-        <v>0.6575086674885071</v>
+        <v>0.2474700253099016</v>
       </c>
       <c r="I3">
-        <v>0.4336482092987435</v>
+        <v>0.1293347901671176</v>
       </c>
       <c r="J3">
-        <v>0.1342939655858189</v>
+        <v>0.132947103199875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.308749860258999</v>
+        <v>1.091345955640207</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.043426673278077</v>
+        <v>2.783382837481327</v>
       </c>
       <c r="C4">
-        <v>0.2688236922782608</v>
+        <v>0.8014173338094679</v>
       </c>
       <c r="D4">
-        <v>0.6295269056035124</v>
+        <v>0.4722127608777953</v>
       </c>
       <c r="E4">
-        <v>0.2557286836162547</v>
+        <v>0.2093112566249076</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.516423489300827</v>
+        <v>0.2838006325284113</v>
       </c>
       <c r="H4">
-        <v>0.6621207783661802</v>
+        <v>0.2476375984959631</v>
       </c>
       <c r="I4">
-        <v>0.4402598989969366</v>
+        <v>0.1379182497081679</v>
       </c>
       <c r="J4">
-        <v>0.1322237867784892</v>
+        <v>0.1228592598182985</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.323939402934784</v>
+        <v>1.069513366955931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.00683058098457</v>
+        <v>2.669434699906844</v>
       </c>
       <c r="C5">
-        <v>0.258362724150544</v>
+        <v>0.7691364433539434</v>
       </c>
       <c r="D5">
-        <v>0.6270435832576027</v>
+        <v>0.4585054132711832</v>
       </c>
       <c r="E5">
-        <v>0.2544987092132587</v>
+        <v>0.2028648059326983</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5176630958995716</v>
+        <v>0.2799063953735512</v>
       </c>
       <c r="H5">
-        <v>0.6641060250547</v>
+        <v>0.2478958722406617</v>
       </c>
       <c r="I5">
-        <v>0.4430565132271802</v>
+        <v>0.1416299734001996</v>
       </c>
       <c r="J5">
-        <v>0.1313999999468365</v>
+        <v>0.1187935055014933</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.330631783171143</v>
+        <v>1.06167338365411</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000750321524208</v>
+        <v>2.650513053655402</v>
       </c>
       <c r="C6">
-        <v>0.2566243177181207</v>
+        <v>0.7637756952551626</v>
       </c>
       <c r="D6">
-        <v>0.626636324492182</v>
+        <v>0.4562387377451955</v>
       </c>
       <c r="E6">
-        <v>0.2542966459020874</v>
+        <v>0.2017986662662068</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5178770091465665</v>
+        <v>0.2792779929985088</v>
       </c>
       <c r="H6">
-        <v>0.6644420589170252</v>
+        <v>0.2479499475311826</v>
       </c>
       <c r="I6">
-        <v>0.4435270593059109</v>
+        <v>0.1422588992445366</v>
       </c>
       <c r="J6">
-        <v>0.1312644078867464</v>
+        <v>0.1181209890973065</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.331773362249393</v>
+        <v>1.06043345887052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.04293336220735</v>
+        <v>2.781846114221821</v>
       </c>
       <c r="C7">
-        <v>0.2686827043293931</v>
+        <v>0.8009820118958544</v>
       </c>
       <c r="D7">
-        <v>0.629493073130277</v>
+        <v>0.4720272588695309</v>
       </c>
       <c r="E7">
-        <v>0.2557119500808369</v>
+        <v>0.2092240259065719</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5164396652651888</v>
+        <v>0.283746877521267</v>
       </c>
       <c r="H7">
-        <v>0.6621471239750107</v>
+        <v>0.2476403253943218</v>
       </c>
       <c r="I7">
-        <v>0.4402972012842188</v>
+        <v>0.1379674558764084</v>
       </c>
       <c r="J7">
-        <v>0.1322125966386309</v>
+        <v>0.1228042506763174</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.324027625693702</v>
+        <v>1.069403442715497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.228551362871031</v>
+        <v>3.361544345789241</v>
       </c>
       <c r="C8">
-        <v>0.3216897671637753</v>
+        <v>0.9651570547837593</v>
       </c>
       <c r="D8">
-        <v>0.6428394216509616</v>
+        <v>0.5431621352545903</v>
       </c>
       <c r="E8">
-        <v>0.2622731927435993</v>
+        <v>0.2426599003865562</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5112743662953037</v>
+        <v>0.306269161221465</v>
       </c>
       <c r="H8">
-        <v>0.6529489933594306</v>
+        <v>0.2479689576846198</v>
       </c>
       <c r="I8">
-        <v>0.4269433673916421</v>
+        <v>0.1209384534205231</v>
       </c>
       <c r="J8">
-        <v>0.1365708589184962</v>
+        <v>0.1438785934506299</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.294262416528866</v>
+        <v>1.11844881679616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.590514941090589</v>
+        <v>4.501561153915247</v>
       </c>
       <c r="C9">
-        <v>0.4248641004353431</v>
+        <v>1.287819544104536</v>
       </c>
       <c r="D9">
-        <v>0.6716698084565564</v>
+        <v>0.6889049277237405</v>
       </c>
       <c r="E9">
-        <v>0.2762755261495258</v>
+        <v>0.3111145238786008</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5054089239649358</v>
+        <v>0.3620761631334091</v>
       </c>
       <c r="H9">
-        <v>0.638257921127078</v>
+        <v>0.2554134042728577</v>
       </c>
       <c r="I9">
-        <v>0.4040050565492361</v>
+        <v>0.09519620678195473</v>
       </c>
       <c r="J9">
-        <v>0.1457448596886266</v>
+        <v>0.1869897322254346</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.251845834517695</v>
+        <v>1.253449402063126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.855119626744397</v>
+        <v>5.343993827519228</v>
       </c>
       <c r="C10">
-        <v>0.5001700646299128</v>
+        <v>1.526125114305842</v>
       </c>
       <c r="D10">
-        <v>0.6944745126083944</v>
+        <v>0.8008153498770127</v>
       </c>
       <c r="E10">
-        <v>0.2872580120580395</v>
+        <v>0.3636677205491878</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5037294056500485</v>
+        <v>0.4117787352353872</v>
       </c>
       <c r="H10">
-        <v>0.6295118566182083</v>
+        <v>0.265751706756447</v>
       </c>
       <c r="I10">
-        <v>0.3891484936105272</v>
+        <v>0.08175169989872622</v>
       </c>
       <c r="J10">
-        <v>0.1528702646424733</v>
+        <v>0.2200813483848378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.230488437656135</v>
+        <v>1.381219423899552</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.975189165056747</v>
+        <v>5.729006191221629</v>
       </c>
       <c r="C11">
-        <v>0.534316136389009</v>
+        <v>1.635006866654862</v>
       </c>
       <c r="D11">
-        <v>0.7052021442258933</v>
+        <v>0.8530244757841956</v>
       </c>
       <c r="E11">
-        <v>0.2924057916915572</v>
+        <v>0.3881876229569414</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5035429848869626</v>
+        <v>0.4366666259260086</v>
       </c>
       <c r="H11">
-        <v>0.6259792461880664</v>
+        <v>0.2716869182005581</v>
       </c>
       <c r="I11">
-        <v>0.3828266901222239</v>
+        <v>0.07701616814944146</v>
       </c>
       <c r="J11">
-        <v>0.1561961037373862</v>
+        <v>0.2355238335990038</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.22291916028135</v>
+        <v>1.44674020617677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020611182450295</v>
+        <v>5.875120634561938</v>
       </c>
       <c r="C12">
-        <v>0.5472298471112254</v>
+        <v>1.676323803888465</v>
       </c>
       <c r="D12">
-        <v>0.7093152696487834</v>
+        <v>0.8730042165605596</v>
       </c>
       <c r="E12">
-        <v>0.2943769716818068</v>
+        <v>0.3975718522585296</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5035559716274207</v>
+        <v>0.4464538554114483</v>
       </c>
       <c r="H12">
-        <v>0.624705809559984</v>
+        <v>0.2741275670108081</v>
       </c>
       <c r="I12">
-        <v>0.3804958528995481</v>
+        <v>0.07543908095598617</v>
       </c>
       <c r="J12">
-        <v>0.1574676908864774</v>
+        <v>0.2414347317039471</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.220362902176248</v>
+        <v>1.472723151075144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.010830810894788</v>
+        <v>5.843637059504374</v>
       </c>
       <c r="C13">
-        <v>0.5444494008106062</v>
+        <v>1.667421352204713</v>
       </c>
       <c r="D13">
-        <v>0.7084271757760519</v>
+        <v>0.8686915391928949</v>
       </c>
       <c r="E13">
-        <v>0.2939514720096241</v>
+        <v>0.3955462005173089</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5035494491494887</v>
+        <v>0.4443292767536917</v>
       </c>
       <c r="H13">
-        <v>0.6249772053924261</v>
+        <v>0.2735930731381586</v>
       </c>
       <c r="I13">
-        <v>0.3809950292250068</v>
+        <v>0.07576882496893944</v>
       </c>
       <c r="J13">
-        <v>0.1571932905327742</v>
+        <v>0.240158782743265</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.220899625279429</v>
+        <v>1.467073335030364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.978926992129118</v>
+        <v>5.741020354662112</v>
       </c>
       <c r="C14">
-        <v>0.5353788931584518</v>
+        <v>1.638404211180273</v>
       </c>
       <c r="D14">
-        <v>0.7055395156302495</v>
+        <v>0.8546638925053855</v>
       </c>
       <c r="E14">
-        <v>0.2925675243967873</v>
+        <v>0.388957617752375</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5035423752565578</v>
+        <v>0.4374643457726677</v>
       </c>
       <c r="H14">
-        <v>0.6258731905414265</v>
+        <v>0.271883745661313</v>
       </c>
       <c r="I14">
-        <v>0.3826336644320918</v>
+        <v>0.07688198197201679</v>
       </c>
       <c r="J14">
-        <v>0.1563004740802967</v>
+        <v>0.2360088171251391</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.22270263310557</v>
+        <v>1.44885370704344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.959378955147827</v>
+        <v>5.678208084038715</v>
       </c>
       <c r="C15">
-        <v>0.529820754156674</v>
+        <v>1.620642090384138</v>
       </c>
       <c r="D15">
-        <v>0.7037773551032274</v>
+        <v>0.8460995012866306</v>
       </c>
       <c r="E15">
-        <v>0.2917226591261226</v>
+        <v>0.3849351625205415</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5035489423750619</v>
+        <v>0.4333077083092434</v>
       </c>
       <c r="H15">
-        <v>0.6264303837224787</v>
+        <v>0.2708623772656722</v>
       </c>
       <c r="I15">
-        <v>0.3836456018593175</v>
+        <v>0.07759252073829437</v>
       </c>
       <c r="J15">
-        <v>0.1557551829204584</v>
+        <v>0.2334752947575254</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.22384744909121</v>
+        <v>1.437849597099131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.847266539228769</v>
+        <v>5.318873456523079</v>
       </c>
       <c r="C16">
-        <v>0.4979362446733262</v>
+        <v>1.519020454275392</v>
       </c>
       <c r="D16">
-        <v>0.6937805487325193</v>
+        <v>0.7974313910634976</v>
       </c>
       <c r="E16">
-        <v>0.2869246469899736</v>
+        <v>0.3620785367003876</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5037532561372728</v>
+        <v>0.4102010311098354</v>
       </c>
       <c r="H16">
-        <v>0.6297517088129041</v>
+        <v>0.2653899537206001</v>
       </c>
       <c r="I16">
-        <v>0.3895704497309254</v>
+        <v>0.08209043299386209</v>
       </c>
       <c r="J16">
-        <v>0.1526546143647494</v>
+        <v>0.2190805763531074</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.231026418954087</v>
+        <v>1.377095365603566</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.778410456996767</v>
+        <v>5.098932917982097</v>
       </c>
       <c r="C17">
-        <v>0.4783471995091872</v>
+        <v>1.456812521541679</v>
       </c>
       <c r="D17">
-        <v>0.687738375127509</v>
+        <v>0.7679234331790212</v>
       </c>
       <c r="E17">
-        <v>0.2840200994031008</v>
+        <v>0.3482212547866581</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5040269052134363</v>
+        <v>0.3966333887230462</v>
       </c>
       <c r="H17">
-        <v>0.6319035764133929</v>
+        <v>0.2623593279826082</v>
       </c>
       <c r="I17">
-        <v>0.3933171842487706</v>
+        <v>0.08521544328997699</v>
       </c>
       <c r="J17">
-        <v>0.1507741610209337</v>
+        <v>0.2103544527949595</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.235981221530011</v>
+        <v>1.341793312605972</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.738778126882039</v>
+        <v>4.972592977132763</v>
       </c>
       <c r="C18">
-        <v>0.4670696937232606</v>
+        <v>1.421075770909056</v>
       </c>
       <c r="D18">
-        <v>0.6842963675974829</v>
+        <v>0.7510722066104165</v>
       </c>
       <c r="E18">
-        <v>0.2823637677812343</v>
+        <v>0.3403079235029836</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5042386363012099</v>
+        <v>0.3890417811018665</v>
       </c>
       <c r="H18">
-        <v>0.6331832461406179</v>
+        <v>0.2607311515063486</v>
       </c>
       <c r="I18">
-        <v>0.3955132751063939</v>
+        <v>0.08714166380573474</v>
       </c>
       <c r="J18">
-        <v>0.1497005222884127</v>
+        <v>0.2053715575734429</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.239033028631582</v>
+        <v>1.322177835217047</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.725354545838456</v>
+        <v>4.929842821810439</v>
       </c>
       <c r="C19">
-        <v>0.4632495585693164</v>
+        <v>1.408982905607445</v>
       </c>
       <c r="D19">
-        <v>0.6831366823147675</v>
+        <v>0.7453867994580889</v>
       </c>
       <c r="E19">
-        <v>0.2818054162185035</v>
+        <v>0.3376380800861298</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5043196410378386</v>
+        <v>0.3865068038980013</v>
       </c>
       <c r="H19">
-        <v>0.6336237245749174</v>
+        <v>0.2601991595211217</v>
       </c>
       <c r="I19">
-        <v>0.3962638774620313</v>
+        <v>0.08781545483650177</v>
       </c>
       <c r="J19">
-        <v>0.1493383712033136</v>
+        <v>0.2036904316831567</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.240100957239889</v>
+        <v>1.315651620310291</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.785743234370727</v>
+        <v>5.122328555619106</v>
       </c>
       <c r="C20">
-        <v>0.4804335688355081</v>
+        <v>1.463430027879099</v>
       </c>
       <c r="D20">
-        <v>0.6883781297132998</v>
+        <v>0.7710519303752505</v>
       </c>
       <c r="E20">
-        <v>0.2843278147686803</v>
+        <v>0.3496904097159188</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5039921475076596</v>
+        <v>0.3980554860620202</v>
       </c>
       <c r="H20">
-        <v>0.6316701613639992</v>
+        <v>0.2626699343014707</v>
       </c>
       <c r="I20">
-        <v>0.3929140852230439</v>
+        <v>0.08486932718584761</v>
       </c>
       <c r="J20">
-        <v>0.1509735157323036</v>
+        <v>0.2112795727554584</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.235432864400678</v>
+        <v>1.345479180062824</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.988299177467809</v>
+        <v>5.771152200467213</v>
       </c>
       <c r="C21">
-        <v>0.5380435790145839</v>
+        <v>1.646924773884336</v>
       </c>
       <c r="D21">
-        <v>0.7063863130082382</v>
+        <v>0.8587782856998558</v>
       </c>
       <c r="E21">
-        <v>0.2929734309616592</v>
+        <v>0.3908900638097705</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5035421805336853</v>
+        <v>0.4394706033478997</v>
       </c>
       <c r="H21">
-        <v>0.625608272082232</v>
+        <v>0.2723804420803333</v>
       </c>
       <c r="I21">
-        <v>0.3821506426763115</v>
+        <v>0.07654900662046238</v>
       </c>
       <c r="J21">
-        <v>0.156562385630437</v>
+        <v>0.2372259875370304</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.222164619628217</v>
+        <v>1.45417255065712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.120413614560618</v>
+        <v>6.197085899705428</v>
       </c>
       <c r="C22">
-        <v>0.5755975891067919</v>
+        <v>1.767358472456976</v>
       </c>
       <c r="D22">
-        <v>0.7184518040891703</v>
+        <v>0.9173441028009108</v>
       </c>
       <c r="E22">
-        <v>0.2987510689998203</v>
+        <v>0.4183996572092994</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5037355119726357</v>
+        <v>0.4686705028521061</v>
       </c>
       <c r="H22">
-        <v>0.6220212560223786</v>
+        <v>0.2798608018902371</v>
       </c>
       <c r="I22">
-        <v>0.3754840115506628</v>
+        <v>0.0723803614286691</v>
       </c>
       <c r="J22">
-        <v>0.1602859457748878</v>
+        <v>0.2545554674633763</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.215300998866326</v>
+        <v>1.532095932816901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.049926957289415</v>
+        <v>5.969562223142646</v>
       </c>
       <c r="C23">
-        <v>0.5555634560772091</v>
+        <v>1.703027954434617</v>
       </c>
       <c r="D23">
-        <v>0.7119851477734755</v>
+        <v>0.8859658709134806</v>
       </c>
       <c r="E23">
-        <v>0.295655793332557</v>
+        <v>0.4036600505555015</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5035875571034865</v>
+        <v>0.4528784242279897</v>
       </c>
       <c r="H23">
-        <v>0.6239013723092199</v>
+        <v>0.2757590204005709</v>
       </c>
       <c r="I23">
-        <v>0.3790083489523095</v>
+        <v>0.07448290627329612</v>
       </c>
       <c r="J23">
-        <v>0.1582921168900242</v>
+        <v>0.2452697997238715</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.218798344890246</v>
+        <v>1.489838643774448</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.782428228976073</v>
+        <v>5.111751059779579</v>
       </c>
       <c r="C24">
-        <v>0.4794903695030257</v>
+        <v>1.460438169158465</v>
       </c>
       <c r="D24">
-        <v>0.6880887978635144</v>
+        <v>0.769637185575391</v>
       </c>
       <c r="E24">
-        <v>0.2841886545043977</v>
+        <v>0.3490260392411955</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5040076920311662</v>
+        <v>0.3974119087023809</v>
       </c>
       <c r="H24">
-        <v>0.6317755558302451</v>
+        <v>0.2625291547559243</v>
       </c>
       <c r="I24">
-        <v>0.3930961953522356</v>
+        <v>0.08502540388638025</v>
       </c>
       <c r="J24">
-        <v>0.1508833642363498</v>
+        <v>0.2108612210648175</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.23568014372259</v>
+        <v>1.343810688940266</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.492821311943601</v>
+        <v>4.192526515152451</v>
       </c>
       <c r="C25">
-        <v>0.3970380475581123</v>
+        <v>1.200374839566791</v>
       </c>
       <c r="D25">
-        <v>0.663585588990486</v>
+        <v>0.6487077148898663</v>
       </c>
       <c r="E25">
-        <v>0.2723656678298525</v>
+        <v>0.292237398451114</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5065360600915199</v>
+        <v>0.3455741103850727</v>
       </c>
       <c r="H25">
-        <v>0.6418732232329489</v>
+        <v>0.2526000420257475</v>
       </c>
       <c r="I25">
-        <v>0.4098610651457264</v>
+        <v>0.101261505851161</v>
       </c>
       <c r="J25">
-        <v>0.1431955919822414</v>
+        <v>0.1751034737563231</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.261604419784135</v>
+        <v>1.212286063052858</v>
       </c>
     </row>
   </sheetData>
